--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b02283e020a72cd8/Documents/StockAnalysis/StockMarketAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC Abrahamson\OneDrive\Documents\StockAnalysis\StockMarketAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3D93539-3BBC-4438-AAA6-5494C79C0B12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{C3D93539-3BBC-4438-AAA6-5494C79C0B12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97B9374A-FC2A-4A53-BC99-026E73895FF1}"/>
   <bookViews>
-    <workbookView xWindow="-29040" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{BE910229-0177-423C-AC5C-D97D5311EBC2}"/>
+    <workbookView xWindow="-28800" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{BE910229-0177-423C-AC5C-D97D5311EBC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>FATE</t>
   </si>
@@ -129,13 +129,22 @@
   </si>
   <si>
     <t>ProShares Long Online/Short Stores ETF</t>
+  </si>
+  <si>
+    <t>Original $</t>
+  </si>
+  <si>
+    <t>Current $</t>
+  </si>
+  <si>
+    <t>MARKET INDEX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,13 +164,33 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,12 +206,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBE97C5-71BE-4D26-89E2-2470C6615045}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,41 +544,42 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -556,10 +592,13 @@
       <c r="E3">
         <v>89.81</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <f>(E3-D3)/D3</f>
         <v>3.6485507246376816</v>
       </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
@@ -569,12 +608,12 @@
       <c r="K3">
         <v>30126.12</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="6">
         <f>(K3-J3)/J3</f>
         <v>7.9417834723536002E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -587,10 +626,13 @@
       <c r="E4">
         <v>2.41</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <f t="shared" ref="F4:F12" si="0">(E4-D4)/D4</f>
         <v>1.4845360824742271</v>
       </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
@@ -600,12 +642,12 @@
       <c r="K4">
         <v>3690.49</v>
       </c>
-      <c r="L4" s="2">
-        <f t="shared" ref="L4:L12" si="1">(K4-J4)/J4</f>
+      <c r="L4" s="6">
+        <f t="shared" ref="L4:L10" si="1">(K4-J4)/J4</f>
         <v>0.1768294238446918</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -618,10 +660,13 @@
       <c r="E5">
         <v>7.48</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>21.666666666666668</v>
       </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
@@ -631,12 +676,12 @@
       <c r="K5">
         <v>12488.01</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="6">
         <f t="shared" si="1"/>
         <v>0.44841756332472343</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -649,7 +694,7 @@
       <c r="E6">
         <v>7.73</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>0.86714975845410658</v>
       </c>
@@ -665,12 +710,12 @@
       <c r="K6">
         <v>109.25</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="6">
         <f>(K6-J6)/J6</f>
         <v>1.2205284552845528</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -683,7 +728,7 @@
       <c r="E7">
         <v>0.79</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>0.16176470588235292</v>
       </c>
@@ -699,12 +744,12 @@
       <c r="K7">
         <v>123.01</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="6">
         <f t="shared" si="1"/>
         <v>1.5078491335372073</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -717,7 +762,7 @@
       <c r="E8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>-3.5087719298245452E-2</v>
       </c>
@@ -733,12 +778,12 @@
       <c r="K8">
         <v>51.98</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="6">
         <f t="shared" si="1"/>
         <v>1.0733944954128438</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -751,7 +796,7 @@
       <c r="E9">
         <v>0.6</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>-0.7321428571428571</v>
       </c>
@@ -767,12 +812,12 @@
       <c r="K9">
         <v>141.44</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="6">
         <f t="shared" si="1"/>
         <v>1.5641769398114578</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -785,7 +830,7 @@
       <c r="E10">
         <v>12.78</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>2.2399999999999948E-2</v>
       </c>
@@ -801,12 +846,12 @@
       <c r="K10">
         <v>90.5</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="6">
         <f t="shared" si="1"/>
         <v>0.90767284991568309</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -819,13 +864,13 @@
       <c r="E11">
         <v>1.22</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>0.48780487804878053</v>
       </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -838,13 +883,16 @@
       <c r="E12">
         <v>119.52</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>3.6415533980582522</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -856,140 +904,170 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
       <c r="B17">
         <v>100</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>3.6485507246376816</v>
       </c>
-      <c r="D17">
-        <f>B17*C17</f>
-        <v>364.85507246376818</v>
+      <c r="D17" s="7">
+        <f>B17+(B17*C17)</f>
+        <v>464.85507246376818</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
       <c r="B18">
         <v>100</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>1.4845360824742271</v>
       </c>
-      <c r="D18">
-        <f t="shared" ref="D18:D26" si="2">B18*C18</f>
-        <v>148.45360824742272</v>
+      <c r="D18" s="7">
+        <f t="shared" ref="D18:D26" si="2">B18+(B18*C18)</f>
+        <v>248.45360824742272</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
       <c r="B19">
         <v>100</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>21.666666666666668</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <f t="shared" si="2"/>
-        <v>2166.666666666667</v>
+        <v>2266.666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
       <c r="B20">
         <v>100</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.86714975845410658</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <f t="shared" si="2"/>
-        <v>86.714975845410663</v>
+        <v>186.71497584541066</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
       <c r="B21">
         <v>100</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>0.16176470588235292</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <f t="shared" si="2"/>
-        <v>16.176470588235293</v>
+        <v>116.17647058823529</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
       <c r="B22">
         <v>100</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>-3.5087719298245452E-2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <f t="shared" si="2"/>
-        <v>-3.5087719298245452</v>
+        <v>96.491228070175453</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
       <c r="B23">
         <v>100</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>-0.7321428571428571</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <f t="shared" si="2"/>
-        <v>-73.214285714285708</v>
+        <v>26.785714285714292</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
       <c r="B24">
         <v>100</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>2.2399999999999948E-2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <f t="shared" si="2"/>
-        <v>2.2399999999999949</v>
+        <v>102.24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
       <c r="B25">
         <v>100</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.48780487804878053</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <f t="shared" si="2"/>
-        <v>48.780487804878057</v>
+        <v>148.78048780487805</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
       <c r="B26">
         <v>100</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>3.6415533980582522</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <f t="shared" si="2"/>
-        <v>364.15533980582524</v>
+        <v>464.15533980582524</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <f>SUM(B17:B26)</f>
         <v>1000</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <f>(D27-B27)/B27</f>
-        <v>2.1213195637780968</v>
-      </c>
-      <c r="D27">
+        <v>3.1213195637780964</v>
+      </c>
+      <c r="D27" s="3">
         <f>SUM(D17:D26)</f>
-        <v>3121.3195637780968</v>
+        <v>4121.3195637780964</v>
       </c>
     </row>
   </sheetData>
